--- a/Spine_Projects/01_input_data/01_input_raw/Products/egasoline/Model_Data_Base_egasoline_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/egasoline/Model_Data_Base_egasoline_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\egasoline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/egasoline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505DA5C3-9445-46B4-88E6-67A195B16402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{505DA5C3-9445-46B4-88E6-67A195B16402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419260C7-38CC-4577-B396-31D2D9694638}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t>Unit</t>
   </si>
@@ -567,621 +567,6 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1268,6 +653,621 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1287,8 +1287,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:R12" totalsRowShown="0">
-  <autoFilter ref="A1:R12" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:R14" totalsRowShown="0">
+  <autoFilter ref="A1:R14" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
@@ -1314,26 +1314,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C1664CC4-80CB-414D-BAFE-57FF9635D79F}" name="Table5" displayName="Table5" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="0" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C1664CC4-80CB-414D-BAFE-57FF9635D79F}" name="Table5" displayName="Table5" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:Q14" xr:uid="{C1664CC4-80CB-414D-BAFE-57FF9635D79F}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{2BE3E317-773B-4E82-9035-69A43C6CB21B}" name="Unit" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{22613EE0-390D-4B04-9A9B-6D5554D1C8ED}" name="Object_type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{54CD83B6-B63A-4ABD-99BD-9ED391BFB078}" name="Input1" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{F183F72C-A42E-4046-9CA2-B23C4DD3765C}" name="Input2" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{CA468CF3-FA3A-4DED-8C1A-ED8385FD2167}" name="Input3" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{6C9174ED-453E-45B1-B2C9-DC69B7CB535A}" name="Input4" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{513A63E4-7BE3-4AF5-AC5E-11EB4AF0D7AD}" name="Output1" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{4623E738-60A2-497B-BD61-91A608129A61}" name="Output2" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{5596B30B-5CDD-4E38-8C15-9C5F774E9B1F}" name="Output3" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{CD6FCAF1-2543-4CF8-99F5-E24DBA2DEDC0}" name="Output4" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{88F2DAC4-E2C3-4C34-B709-2523E8BE5B1F}" name="Relation_In1_In2" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{3C190E97-FD9A-4F36-8EBF-717B1ECA00B1}" name="Relation_In1_In3" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{043147D8-AE82-457E-8F19-EB4AE9D43B9E}" name="Relation_In1_In4" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{A190E492-7FDF-403D-B8AF-17448A48E47F}" name="Relation_In1_Out1" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{26E8D274-C985-4E20-8920-2BAC0A372552}" name="Relation_Out1_Out2" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{4E0BCAE8-11F8-4D98-AECC-86C8A3C2B5C1}" name="Relation_Out1_Out3" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{3C0369D5-4DD0-4B4B-9480-0C4665C0BC59}" name="Relation_Out1_Out4" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2BE3E317-773B-4E82-9035-69A43C6CB21B}" name="Unit" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{22613EE0-390D-4B04-9A9B-6D5554D1C8ED}" name="Object_type" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{54CD83B6-B63A-4ABD-99BD-9ED391BFB078}" name="Input1" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{F183F72C-A42E-4046-9CA2-B23C4DD3765C}" name="Input2" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{CA468CF3-FA3A-4DED-8C1A-ED8385FD2167}" name="Input3" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{6C9174ED-453E-45B1-B2C9-DC69B7CB535A}" name="Input4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{513A63E4-7BE3-4AF5-AC5E-11EB4AF0D7AD}" name="Output1" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{4623E738-60A2-497B-BD61-91A608129A61}" name="Output2" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{5596B30B-5CDD-4E38-8C15-9C5F774E9B1F}" name="Output3" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{CD6FCAF1-2543-4CF8-99F5-E24DBA2DEDC0}" name="Output4" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{88F2DAC4-E2C3-4C34-B709-2523E8BE5B1F}" name="Relation_In1_In2" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{3C190E97-FD9A-4F36-8EBF-717B1ECA00B1}" name="Relation_In1_In3" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{043147D8-AE82-457E-8F19-EB4AE9D43B9E}" name="Relation_In1_In4" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{A190E492-7FDF-403D-B8AF-17448A48E47F}" name="Relation_In1_Out1" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{26E8D274-C985-4E20-8920-2BAC0A372552}" name="Relation_Out1_Out2" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{4E0BCAE8-11F8-4D98-AECC-86C8A3C2B5C1}" name="Relation_Out1_Out3" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{3C0369D5-4DD0-4B4B-9480-0C4665C0BC59}" name="Relation_Out1_Out4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1349,7 +1349,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -1368,7 +1368,7 @@
     <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input2"/>
     <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Output1"/>
     <tableColumn id="25" xr3:uid="{DDAFCF0A-1EF1-4B7B-9742-01F9FA7A22E5}" name="vom_cost_Output2"/>
-    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="21"/>
+    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="1"/>
     <tableColumn id="30" xr3:uid="{09434E4A-7BF5-4547-9708-EA3F0F7ADC8E}" name="initial_connections_invested_available"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1379,7 +1379,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K5" totalsRowShown="0">
   <autoFilter ref="A1:K5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
@@ -1704,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1863,7 +1863,7 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>42</v>
@@ -1880,7 +1880,7 @@
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1941,15 +1941,41 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P12" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P14" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1977,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CABA7C5-6230-4207-9D35-0A95D86E66AC}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/egasoline/Model_Data_Base_egasoline_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/egasoline/Model_Data_Base_egasoline_4_InOutputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/egasoline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/egasoline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{505DA5C3-9445-46B4-88E6-67A195B16402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419260C7-38CC-4577-B396-31D2D9694638}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{505DA5C3-9445-46B4-88E6-67A195B16402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A79FF143-1F84-49F7-9A6D-688113086613}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-11730" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1911,9 +1911,6 @@
       <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="N10">
-        <v>1.4865951742627345E-3</v>
-      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
@@ -1926,9 +1923,6 @@
       </c>
       <c r="C11" t="s">
         <v>82</v>
-      </c>
-      <c r="N11">
-        <v>26.81</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
